--- a/Coordonnees_contours_sous-bassins/essaka_pts.xlsx
+++ b/Coordonnees_contours_sous-bassins/essaka_pts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Data\Data\points_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CMIP5\CMIP5\Coordonnees_contours_sous-bassins\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65B54BA-917D-4082-A6D3-A70A84BFE176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="essaka_pts" sheetId="1" r:id="rId1"/>
@@ -24,19 +25,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
     <t>long</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
@@ -523,48 +524,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,32 +842,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -877,7 +878,7 @@
         <v>17.377800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -888,7 +889,7 @@
         <v>17.774000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -899,7 +900,7 @@
         <v>18.302199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -910,7 +911,7 @@
         <v>19.424499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -921,7 +922,7 @@
         <v>20.018699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -932,7 +933,7 @@
         <v>20.348800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -943,7 +944,7 @@
         <v>20.899000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -954,7 +955,7 @@
         <v>21.449200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -965,7 +966,7 @@
         <v>22.0214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -976,7 +977,7 @@
         <v>22.7697</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -987,7 +988,7 @@
         <v>23.451899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -998,7 +999,7 @@
         <v>24.178100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>24.618300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>24.860399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>24.574300000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>24.464200000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>24.970400000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>24.970400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>24.772300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>24.904399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>24.706299999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>24.552299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>24.750299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>24.266200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>24.4862</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>24.200099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>24.0901</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>23.9361</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>24.112100000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>23.4739</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>22.637599999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>22.263500000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>21.757300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>21.449200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>21.053100000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>20.480899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>20.018699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>19.534600000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>19.160399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>18.6983</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>18.984400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>19.138400000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>19.2485</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>19.512599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>19.666599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>19.578600000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>19.666599999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>19.512599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>19.6006</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>19.424499999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>19.4025</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>19.5566</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>19.336500000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>19.072399999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>18.808299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>18.412199999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>17.972000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
